--- a/GPT_MASB_Room206.xlsx
+++ b/GPT_MASB_Room206.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-039</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-040</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
